--- a/data/test_input.xlsx
+++ b/data/test_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Mode_1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Mode_3" sheetId="4" r:id="rId3"/>
     <sheet name="Mode_4" sheetId="5" r:id="rId4"/>
     <sheet name="Manual" sheetId="2" r:id="rId5"/>
+    <sheet name="Unit-test" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="4236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="4249">
   <si>
     <t>H4-0704BD125-01.DT01</t>
   </si>
@@ -12585,27 +12586,9 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Temp at tank A high</t>
-  </si>
-  <si>
-    <t>Event 1</t>
-  </si>
-  <si>
-    <t>Event 2</t>
-  </si>
-  <si>
     <t>Tag List</t>
   </si>
   <si>
-    <t>Should be alarm</t>
-  </si>
-  <si>
-    <t>It too high</t>
-  </si>
-  <si>
-    <t>It too hot</t>
-  </si>
-  <si>
     <t>1440 min. = 1 day</t>
   </si>
   <si>
@@ -12624,15 +12607,6 @@
     <t>Low_limit</t>
   </si>
   <si>
-    <t>could be alarm</t>
-  </si>
-  <si>
-    <t>It too cold</t>
-  </si>
-  <si>
-    <t>It too Low</t>
-  </si>
-  <si>
     <t>Threshold(min.)</t>
   </si>
   <si>
@@ -12675,36 +12649,12 @@
     <t>example</t>
   </si>
   <si>
-    <t>On/Off_sensor</t>
-  </si>
-  <si>
-    <t>On/Off_condition</t>
-  </si>
-  <si>
-    <t>On/Off_value</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Event 3</t>
-  </si>
-  <si>
     <t>not-equal</t>
   </si>
   <si>
-    <t>100:300</t>
-  </si>
-  <si>
-    <t>meow</t>
-  </si>
-  <si>
     <t>Current tag List</t>
   </si>
   <si>
-    <t>1:10</t>
-  </si>
-  <si>
     <t>mode definition</t>
   </si>
   <si>
@@ -12720,29 +12670,119 @@
     <t>mode 4 = trend down</t>
   </si>
   <si>
-    <t>will be alarm</t>
-  </si>
-  <si>
-    <t>it's up</t>
-  </si>
-  <si>
-    <t>It's going up</t>
-  </si>
-  <si>
-    <t>will be alarm 4</t>
-  </si>
-  <si>
-    <t>it's down</t>
-  </si>
-  <si>
-    <t>It's going down</t>
+    <t>Pass the test</t>
+  </si>
+  <si>
+    <t>High test</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>massage</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>trend-up</t>
+  </si>
+  <si>
+    <t>trend-down</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>31-07-21 8:07</t>
+  </si>
+  <si>
+    <t>thrs(min.)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>13-08-21 16:11</t>
+  </si>
+  <si>
+    <t>Low test</t>
+  </si>
+  <si>
+    <t>test-trend up</t>
+  </si>
+  <si>
+    <t>test-trend down</t>
+  </si>
+  <si>
+    <t>25-07-21 4:19</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Notify in MS team</t>
+  </si>
+  <si>
+    <t>19-08-21 3:32</t>
+  </si>
+  <si>
+    <t>Date format</t>
+  </si>
+  <si>
+    <t>PASS/FAIL</t>
+  </si>
+  <si>
+    <t>BEWARE</t>
+  </si>
+  <si>
+    <t>Trend-up</t>
+  </si>
+  <si>
+    <t>30-08-21 13:32</t>
+  </si>
+  <si>
+    <t>Do nothing</t>
+  </si>
+  <si>
+    <t>case 7</t>
+  </si>
+  <si>
+    <t>16-09-21 20:46</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>On_sensor</t>
+  </si>
+  <si>
+    <t>On_condition</t>
+  </si>
+  <si>
+    <t>On_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12771,16 +12811,41 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -12905,11 +12970,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12966,6 +13089,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12981,6 +13154,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4F4F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13291,8 +13469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13317,107 +13495,71 @@
         <v>4183</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>4196</v>
+        <v>4190</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>4201</v>
+        <v>4192</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>4184</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>4204</v>
+        <v>4195</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>4215</v>
+        <v>4246</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>4216</v>
+        <v>4247</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>4217</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4185</v>
+        <v>4214</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>4189</v>
+        <v>4213</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>4208</v>
-      </c>
-      <c r="I2" s="21">
-        <v>20</v>
-      </c>
+        <v>4193</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>4186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C3" s="28">
-        <v>30</v>
-      </c>
-      <c r="D3" s="28">
-        <v>5</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>4190</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>4202</v>
-      </c>
+      <c r="A3" s="25"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>4187</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C4" s="28">
-        <v>300</v>
-      </c>
-      <c r="D4" s="28">
-        <v>20</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>4191</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>3685</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>4206</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>4224</v>
-      </c>
+      <c r="A4" s="25"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F5" s="25"/>
@@ -13430,18 +13572,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataValidations count="5">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="I1:I1048576">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="I2:I1048576">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"on,off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"equal,not-equal,higher,lower,between,out of range"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="D2:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="E2:E1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13452,7 +13594,7 @@
           <x14:formula1>
             <xm:f>Manual!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576 G1:G1048576</xm:sqref>
+          <xm:sqref>G2:G1048576 B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13465,7 +13607,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13489,154 +13631,106 @@
         <v>4183</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>4197</v>
+        <v>4191</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>4201</v>
+        <v>4192</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>4184</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>4204</v>
+        <v>4195</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>4215</v>
+        <v>4246</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>4216</v>
+        <v>4247</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>4217</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4185</v>
-      </c>
-      <c r="B2" s="25" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="28">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" s="28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>4198</v>
+        <v>4213</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>4208</v>
-      </c>
-      <c r="I2" s="21">
-        <v>20</v>
-      </c>
+        <v>4193</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>4186</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>3685</v>
-      </c>
-      <c r="C3" s="28">
-        <v>40</v>
-      </c>
-      <c r="D3" s="28">
-        <v>20</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>4200</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>4202</v>
-      </c>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>4187</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C4" s="28">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28">
-        <v>5</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>4199</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>4206</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>4221</v>
-      </c>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>4219</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>3685</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28">
-        <v>9</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>4218</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>4220</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>4222</v>
-      </c>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F6" s="25"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="wrong pattern" error="check your pattern" promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="I1:I1048576">
+  <dataValidations count="7">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="wrong pattern" error="check your pattern" promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="I3:I1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"equal,not-equal,higher,lower,between,out of range"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Switch" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Switch" sqref="F3:F1048576">
       <formula1>"on,off"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="E1:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="D1:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="E2:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="D2:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"on,off"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="I2">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -13646,7 +13740,7 @@
           <x14:formula1>
             <xm:f>Manual!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576 G1:G1048576</xm:sqref>
+          <xm:sqref>B2:B1048576 G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13659,7 +13753,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13683,95 +13777,74 @@
         <v>4183</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>4201</v>
+        <v>4192</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>4184</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>4204</v>
+        <v>4195</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>4215</v>
+        <v>4246</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>4216</v>
+        <v>4247</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>4217</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4185</v>
+        <v>4231</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="28">
-        <v>10</v>
+        <f>6*1440</f>
+        <v>8640</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>4230</v>
+        <v>4213</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>4208</v>
-      </c>
-      <c r="H2" s="21">
-        <v>20</v>
-      </c>
+        <v>4193</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>4186</v>
+        <v>4243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1266</v>
+        <v>42</v>
       </c>
       <c r="C3" s="28">
-        <v>5</v>
+        <v>1440</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>4231</v>
+        <v>4213</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>4202</v>
+        <v>4193</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>4187</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C4" s="28">
-        <v>20</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>4232</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>3685</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>4206</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>4224</v>
-      </c>
+      <c r="A4" s="25"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E5" s="25"/>
@@ -13783,15 +13856,15 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="C1:C1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="D2:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="C2:C1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"equal,not-equal,higher,lower,between,out of range"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"on,off"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="H1:H1048576">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="H2:H1048576">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -13804,7 +13877,7 @@
           <x14:formula1>
             <xm:f>Manual!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576 F1:F1048576</xm:sqref>
+          <xm:sqref>B2:B1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13816,8 +13889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13841,95 +13914,64 @@
         <v>4183</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>4201</v>
+        <v>4192</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>4184</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>4204</v>
+        <v>4195</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>4215</v>
+        <v>4246</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>4216</v>
+        <v>4247</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>4217</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4185</v>
+        <v>4232</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="28">
-        <v>10</v>
+        <f>6*1440</f>
+        <v>8640</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>4233</v>
+        <v>4213</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>4208</v>
-      </c>
-      <c r="H2" s="21">
-        <v>20</v>
-      </c>
+        <v>4193</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>4186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C3" s="28">
-        <v>5</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>4234</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>4202</v>
-      </c>
+      <c r="A3" s="25"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>4187</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C4" s="28">
-        <v>20</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>4235</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>4202</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>3685</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>4206</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>4224</v>
-      </c>
+      <c r="A4" s="25"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E5" s="25"/>
@@ -13941,18 +13983,18 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="H1:H1048576">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." promptTitle="pattern" prompt="value                 value : value                 text                                              none" sqref="H2:H1048576">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"on,off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"equal,not-equal,higher,lower,between,out of range"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="C1:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="D1:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="1440 min. = 1 day                                                                        10080 min. = 1 week                                                                     43200 min. = 1 month (30 days)" sqref="C2:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pattern" prompt="text" sqref="D2:D1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -13962,7 +14004,7 @@
           <x14:formula1>
             <xm:f>Manual!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576 F1:F1048576</xm:sqref>
+          <xm:sqref>B2:B1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13974,8 +14016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13991,29 +14033,29 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4188</v>
-      </c>
-      <c r="B1" s="30" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="16" t="s">
         <v>4195</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="16" t="s">
-        <v>4204</v>
-      </c>
       <c r="G1" s="12"/>
-      <c r="H1" s="31" t="s">
-        <v>4203</v>
-      </c>
-      <c r="I1" s="32"/>
+      <c r="H1" s="49" t="s">
+        <v>4194</v>
+      </c>
+      <c r="I1" s="50"/>
       <c r="J1" s="17" t="s">
-        <v>4214</v>
+        <v>4205</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>4223</v>
+        <v>4207</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>4225</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -14021,18 +14063,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4192</v>
+        <v>4186</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="F2" s="3" t="s">
-        <v>4212</v>
+        <v>4203</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>4205</v>
+        <v>4196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>4210</v>
+        <v>4201</v>
       </c>
       <c r="J2" s="3">
         <v>10</v>
@@ -14041,7 +14083,7 @@
         <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>4226</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14049,18 +14091,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4193</v>
+        <v>4187</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="F3" s="5" t="s">
-        <v>4213</v>
+        <v>4204</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>4220</v>
+        <v>4206</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>4210</v>
+        <v>4201</v>
       </c>
       <c r="J3" s="4">
         <v>10</v>
@@ -14069,7 +14111,7 @@
         <v>3685</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>4227</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14077,15 +14119,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4194</v>
+        <v>4188</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>4206</v>
+        <v>4197</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>4211</v>
+        <v>4202</v>
       </c>
       <c r="J4" s="19">
         <v>0.43055555555555558</v>
@@ -14094,7 +14136,7 @@
         <v>1266</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>4228</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14102,10 +14144,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>4207</v>
+        <v>4198</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>4211</v>
+        <v>4202</v>
       </c>
       <c r="J5" s="19">
         <v>0.43055555555555558</v>
@@ -14114,7 +14156,7 @@
         <v>2288</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>4229</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -14122,10 +14164,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>4208</v>
+        <v>4199</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>4210</v>
+        <v>4201</v>
       </c>
       <c r="J6" s="4">
         <v>10</v>
@@ -14136,10 +14178,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>4209</v>
+        <v>4200</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>4210</v>
+        <v>4201</v>
       </c>
       <c r="J7" s="5">
         <v>10</v>
@@ -35033,4 +35075,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="35" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>4218</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>4219</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>4238</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>4220</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3</v>
+      </c>
+      <c r="E3" s="33">
+        <v>44477.861111111109</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>4239</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D4" s="12">
+        <v>8640</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4233</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D5" s="12">
+        <v>8640</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1440</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>4241</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>4245</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1440</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>4244</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/test_input.xlsx
+++ b/data/test_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mode_1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="4249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="4248">
   <si>
     <t>H4-0704BD125-01.DT01</t>
   </si>
@@ -12611,9 +12611,6 @@
   </si>
   <si>
     <t>on</t>
-  </si>
-  <si>
-    <t>On/off condition</t>
   </si>
   <si>
     <t>Status</t>
@@ -13469,8 +13466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13504,21 +13501,21 @@
         <v>4184</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>4245</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>4246</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>4247</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -13530,7 +13527,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>4193</v>
@@ -13640,21 +13637,21 @@
         <v>4184</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>4245</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>4246</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>4247</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -13666,7 +13663,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>4193</v>
@@ -13783,21 +13780,21 @@
         <v>4184</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>4246</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>4247</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -13807,7 +13804,7 @@
         <v>8640</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>4193</v>
@@ -13818,7 +13815,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
@@ -13827,7 +13824,7 @@
         <v>1440</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>4193</v>
@@ -13889,8 +13886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13920,21 +13917,21 @@
         <v>4184</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>4246</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>4247</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -13944,7 +13941,7 @@
         <v>8640</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>4193</v>
@@ -14017,7 +14014,7 @@
   <dimension ref="A1:N4183"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14041,21 +14038,21 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="F1" s="16" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="49" t="s">
-        <v>4194</v>
+        <v>4246</v>
       </c>
       <c r="I1" s="50"/>
       <c r="J1" s="17" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="L1" s="26" t="s">
+        <v>4206</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>4207</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>4208</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -14068,13 +14065,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="F2" s="3" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="J2" s="3">
         <v>10</v>
@@ -14083,7 +14080,7 @@
         <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14096,13 +14093,13 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="F3" s="5" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="J3" s="4">
         <v>10</v>
@@ -14111,7 +14108,7 @@
         <v>3685</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14124,10 +14121,10 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="J4" s="19">
         <v>0.43055555555555558</v>
@@ -14136,7 +14133,7 @@
         <v>1266</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14144,10 +14141,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="J5" s="19">
         <v>0.43055555555555558</v>
@@ -14156,7 +14153,7 @@
         <v>2288</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -14164,10 +14161,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="J6" s="4">
         <v>10</v>
@@ -14178,10 +14175,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>4199</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>4200</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>4201</v>
       </c>
       <c r="J7" s="5">
         <v>10</v>
@@ -35099,36 +35096,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4226</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>4217</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>4227</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>4218</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="32" t="s">
+        <v>4237</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>4219</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>4238</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>4220</v>
-      </c>
       <c r="I1" s="36" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -35140,24 +35137,24 @@
         <v>3</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="G2" s="37" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>4234</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>4228</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>4235</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -35172,79 +35169,79 @@
         <v>44477.861111111109</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="D4" s="12">
         <v>8640</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>4212</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>4233</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>4213</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="35" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>4234</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>4228</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>4235</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="D5" s="12">
         <v>8640</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="G5" s="37" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>4234</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>4228</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>4235</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -35256,77 +35253,77 @@
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="G6" s="37" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>4234</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>4228</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>4235</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="D7" s="42">
         <v>1440</v>
       </c>
       <c r="E7" s="42" t="s">
+        <v>4240</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>4212</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>4244</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>4241</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>4213</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>4245</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>4228</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>4242</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="D8" s="39">
         <v>1440</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="G8" s="46" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I8" s="45" t="s">
         <v>4234</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>4228</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>4235</v>
       </c>
     </row>
   </sheetData>
